--- a/data/trans_camb/P12_3_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,77</t>
+          <t>-2,5; 3,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,59</t>
+          <t>-2,71; 3,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,6</t>
+          <t>0,9; 7,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,25</t>
+          <t>-2,92; 5,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,33</t>
+          <t>-5,64; 0,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 5,6</t>
+          <t>-1,0; 5,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,27</t>
+          <t>-1,47; 3,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,72</t>
+          <t>-2,88; 1,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,61</t>
+          <t>1,03; 5,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 115,56</t>
+          <t>-41,78; 128,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 110,62</t>
+          <t>-46,2; 109,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 229,22</t>
+          <t>11,55; 234,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 132,31</t>
+          <t>-41,28; 126,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 37,83</t>
+          <t>-68,02; 26,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 135,93</t>
+          <t>-15,36; 146,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 85,91</t>
+          <t>-25,37; 86,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 47,52</t>
+          <t>-44,82; 37,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 140,83</t>
+          <t>14,6; 136,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,83</t>
+          <t>-1,0; 5,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 6,19</t>
+          <t>-0,66; 6,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 9,55</t>
+          <t>1,91; 9,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 6,27</t>
+          <t>-2,8; 6,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,09</t>
+          <t>-3,23; 5,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 4,8</t>
+          <t>-3,09; 4,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,08</t>
+          <t>-0,64; 5,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,48</t>
+          <t>-0,81; 4,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,72</t>
+          <t>0,89; 5,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 273,03</t>
+          <t>-25,11; 262,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 286,84</t>
+          <t>-16,58; 290,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,4; 454,99</t>
+          <t>29,34; 438,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 103,19</t>
+          <t>-29,57; 104,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 82,54</t>
+          <t>-33,25; 81,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 79,61</t>
+          <t>-29,64; 77,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 107,4</t>
+          <t>-9,97; 112,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 96,04</t>
+          <t>-11,59; 95,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 121,91</t>
+          <t>11,59; 127,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,96</t>
+          <t>1,01; 6,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 6,46</t>
+          <t>-0,01; 6,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 8,63</t>
+          <t>-3,01; 8,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 5,15</t>
+          <t>-7,78; 5,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 9,03</t>
+          <t>-5,72; 9,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 9,93</t>
+          <t>-3,88; 8,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,86</t>
+          <t>0,19; 5,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,75</t>
+          <t>-0,13; 5,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 7,52</t>
+          <t>-4,22; 7,61</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,77; 192,39</t>
+          <t>10,0; 180,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 173,14</t>
+          <t>-0,94; 174,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 189,8</t>
+          <t>-44,58; 185,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 64,56</t>
+          <t>-46,45; 72,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,88; 108,34</t>
+          <t>-37,51; 114,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 129,83</t>
+          <t>-25,05; 103,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 111,0</t>
+          <t>1,55; 109,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 110,79</t>
+          <t>-1,3; 112,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,03; 124,1</t>
+          <t>-49,79; 124,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,2</t>
+          <t>1,7; 6,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,16</t>
+          <t>0,09; 4,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,12</t>
+          <t>3,73; 9,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,28</t>
+          <t>1,87; 8,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,88</t>
+          <t>-0,89; 4,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 5,96</t>
+          <t>-3,02; 6,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,17</t>
+          <t>2,63; 6,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,69</t>
+          <t>0,43; 3,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,03</t>
+          <t>0,81; 7,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,1; 119,46</t>
+          <t>24,77; 121,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 79,88</t>
+          <t>1,07; 78,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,46; 166,8</t>
+          <t>54,58; 176,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,22; 123,68</t>
+          <t>18,51; 132,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 74,63</t>
+          <t>-9,34; 72,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 84,84</t>
+          <t>-33,53; 86,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,44; 103,48</t>
+          <t>35,45; 104,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,4; 61,46</t>
+          <t>5,59; 65,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,76; 113,78</t>
+          <t>14,97; 112,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 6,82</t>
+          <t>-0,18; 6,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,08</t>
+          <t>1,19; 7,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,16</t>
+          <t>2,2; 9,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,13; 12,98</t>
+          <t>5,46; 13,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,81; 13,2</t>
+          <t>5,73; 13,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,49</t>
+          <t>2,36; 11,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,5</t>
+          <t>4,21; 9,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,8</t>
+          <t>4,26; 9,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,68</t>
+          <t>3,81; 9,54</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,08; 226,34</t>
+          <t>-3,59; 233,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>10,32; 253,99</t>
+          <t>12,78; 237,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,98; 281,15</t>
+          <t>25,57; 280,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>45,36; 181,31</t>
+          <t>50,7; 190,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>52,35; 184,18</t>
+          <t>53,54; 200,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>32,07; 157,55</t>
+          <t>25,34; 158,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>46,1; 153,18</t>
+          <t>43,45; 155,78</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>51,8; 164,06</t>
+          <t>48,29; 157,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>44,66; 156,69</t>
+          <t>45,64; 157,4</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,43</t>
+          <t>-1,41; 5,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,54</t>
+          <t>-3,63; 1,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 7,75</t>
+          <t>-1,31; 7,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,79</t>
+          <t>2,05; 7,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,25</t>
+          <t>0,24; 5,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,66; 10,18</t>
+          <t>4,82; 10,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,38</t>
+          <t>1,78; 6,32</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,29</t>
+          <t>-0,15; 4,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,65; 8,3</t>
+          <t>3,61; 8,6</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 260,26</t>
+          <t>-32,11; 272,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 84,6</t>
+          <t>-75,24; 99,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 352,2</t>
+          <t>-31,66; 412,98</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>19,19; 88,7</t>
+          <t>20,58; 96,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,91; 66,91</t>
+          <t>2,39; 70,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>44,43; 129,7</t>
+          <t>49,93; 136,08</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>20,14; 90,76</t>
+          <t>20,11; 90,64</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 61,15</t>
+          <t>-1,97; 61,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>40,9; 116,96</t>
+          <t>39,45; 122,1</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,33</t>
+          <t>1,8; 4,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,51</t>
+          <t>1,13; 3,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,4</t>
+          <t>2,43; 6,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,31</t>
+          <t>3,15; 6,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,87</t>
+          <t>1,9; 4,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,2</t>
+          <t>2,31; 6,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,91</t>
+          <t>2,98; 4,92</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,86</t>
+          <t>1,87; 3,8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,84</t>
+          <t>3,03; 5,81</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>31,07; 95,06</t>
+          <t>30,59; 93,9</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>19,54; 78,51</t>
+          <t>20,08; 79,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>40,63; 135,89</t>
+          <t>46,47; 141,71</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,01; 81,52</t>
+          <t>34,49; 81,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>20,7; 63,1</t>
+          <t>20,04; 60,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>24,61; 79,26</t>
+          <t>26,73; 77,84</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>39,91; 79,05</t>
+          <t>41,34; 77,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>24,78; 61,41</t>
+          <t>25,71; 59,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>42,81; 90,54</t>
+          <t>43,47; 89,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
